--- a/table/abundance_biomass.xlsx
+++ b/table/abundance_biomass.xlsx
@@ -375,7 +375,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Abundance_sd</t>
+          <t>Abundance_se</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -385,7 +385,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Biomass_sd</t>
+          <t>Biomass_se</t>
         </is>
       </c>
     </row>
@@ -404,13 +404,13 @@
         <v>19480.56503444799</v>
       </c>
       <c r="D2">
-        <v>1836.292185796421</v>
+        <v>1060.18378778037</v>
       </c>
       <c r="E2">
         <v>51.88829818482505</v>
       </c>
       <c r="F2">
-        <v>63.33526841717943</v>
+        <v>36.56663426985575</v>
       </c>
     </row>
     <row r="3">
@@ -425,16 +425,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>11246.94931182727</v>
+        <v>11289.39062998511</v>
       </c>
       <c r="D3">
-        <v>2242.974477144329</v>
+        <v>1265.434714997452</v>
       </c>
       <c r="E3">
-        <v>27.15173758615923</v>
+        <v>41.41083091949257</v>
       </c>
       <c r="F3">
-        <v>18.8521391727621</v>
+        <v>20.34224188808591</v>
       </c>
     </row>
     <row r="4">
@@ -452,13 +452,13 @@
         <v>9634.179221829398</v>
       </c>
       <c r="D4">
-        <v>1183.039848601683</v>
+        <v>683.0283750522358</v>
       </c>
       <c r="E4">
         <v>24.72182931411729</v>
       </c>
       <c r="F4">
-        <v>40.68488614360945</v>
+        <v>23.48942996696219</v>
       </c>
     </row>
     <row r="5">
@@ -476,13 +476,13 @@
         <v>10143.47503972346</v>
       </c>
       <c r="D5">
-        <v>588.0841551165773</v>
+        <v>339.5305452627096</v>
       </c>
       <c r="E5">
         <v>11.09124261232783</v>
       </c>
       <c r="F5">
-        <v>5.408944796113294</v>
+        <v>3.122855734067836</v>
       </c>
     </row>
     <row r="6">
@@ -500,13 +500,13 @@
         <v>7045.258814201234</v>
       </c>
       <c r="D6">
-        <v>818.5785003007717</v>
+        <v>472.6065175014907</v>
       </c>
       <c r="E6">
         <v>5.944562931704985</v>
       </c>
       <c r="F6">
-        <v>5.36644399777739</v>
+        <v>3.098317886707828</v>
       </c>
     </row>
     <row r="7">
@@ -524,13 +524,13 @@
         <v>9549.296585513719</v>
       </c>
       <c r="D7">
-        <v>1988.863748323868</v>
+        <v>1148.271020476273</v>
       </c>
       <c r="E7">
         <v>93.61407208076503</v>
       </c>
       <c r="F7">
-        <v>13.04166617688349</v>
+        <v>7.52960947790492</v>
       </c>
     </row>
     <row r="8">
@@ -548,13 +548,13 @@
         <v>8360.939677094235</v>
       </c>
       <c r="D8">
-        <v>2839.447889942625</v>
+        <v>1639.35600360829</v>
       </c>
       <c r="E8">
         <v>20.77436137099685</v>
       </c>
       <c r="F8">
-        <v>15.20601229381037</v>
+        <v>8.779195291132176</v>
       </c>
     </row>
     <row r="9">
@@ -572,13 +572,13 @@
         <v>4923.192906309296</v>
       </c>
       <c r="D9">
-        <v>972.4527652599993</v>
+        <v>561.4458657970566</v>
       </c>
       <c r="E9">
         <v>1.737269684378963</v>
       </c>
       <c r="F9">
-        <v>0.8088966589264727</v>
+        <v>0.4670167037777879</v>
       </c>
     </row>
     <row r="10">
@@ -596,13 +596,13 @@
         <v>6917.934859727717</v>
       </c>
       <c r="D10">
-        <v>777.9622122079992</v>
+        <v>449.1566926376451</v>
       </c>
       <c r="E10">
         <v>30.04640636922771</v>
       </c>
       <c r="F10">
-        <v>25.98275475732156</v>
+        <v>15.00115045342763</v>
       </c>
     </row>
     <row r="11">
@@ -620,13 +620,13 @@
         <v>6663.286950780685</v>
       </c>
       <c r="D11">
-        <v>514.5736357270057</v>
+        <v>297.0892271048712</v>
       </c>
       <c r="E11">
         <v>12.67513258137797</v>
       </c>
       <c r="F11">
-        <v>1.613205418503104</v>
+        <v>0.9313845826309297</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +644,13 @@
         <v>4626.103679204424</v>
       </c>
       <c r="D12">
-        <v>265.0459469450928</v>
+        <v>153.0243488163686</v>
       </c>
       <c r="E12">
         <v>35.38082624789595</v>
       </c>
       <c r="F12">
-        <v>15.72381527440467</v>
+        <v>9.078148981365485</v>
       </c>
     </row>
   </sheetData>
